--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bsg-Slc16a7.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bsg-Slc16a7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +531,7 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>51.24664566666667</v>
+        <v>48.68074166666667</v>
       </c>
       <c r="H2">
-        <v>153.739937</v>
+        <v>146.042225</v>
       </c>
       <c r="I2">
-        <v>0.1518741212000517</v>
+        <v>0.1601707305796784</v>
       </c>
       <c r="J2">
-        <v>0.1518741212000517</v>
+        <v>0.1601707305796784</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.01220466666666667</v>
+        <v>1.166692666666667</v>
       </c>
       <c r="N2">
-        <v>0.036614</v>
+        <v>3.500078</v>
       </c>
       <c r="O2">
-        <v>0.0005045322537201124</v>
+        <v>0.0322429947436799</v>
       </c>
       <c r="P2">
-        <v>0.0005045322537201123</v>
+        <v>0.03224299474367989</v>
       </c>
       <c r="Q2">
-        <v>0.6254482281464445</v>
+        <v>56.79546431039446</v>
       </c>
       <c r="R2">
-        <v>5.629034053318</v>
+        <v>511.15917879355</v>
       </c>
       <c r="S2">
-        <v>7.662539265082358E-05</v>
+        <v>0.005164384024171941</v>
       </c>
       <c r="T2">
-        <v>7.662539265082356E-05</v>
+        <v>0.00516438402417194</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>51.24664566666667</v>
+        <v>48.68074166666667</v>
       </c>
       <c r="H3">
-        <v>153.739937</v>
+        <v>146.042225</v>
       </c>
       <c r="I3">
-        <v>0.1518741212000517</v>
+        <v>0.1601707305796784</v>
       </c>
       <c r="J3">
-        <v>0.1518741212000517</v>
+        <v>0.1601707305796784</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.166692666666667</v>
+        <v>18.21585666666666</v>
       </c>
       <c r="N3">
-        <v>3.500078</v>
+        <v>54.64756999999999</v>
       </c>
       <c r="O3">
-        <v>0.0482302463958099</v>
+        <v>0.5034177273377561</v>
       </c>
       <c r="P3">
-        <v>0.0482302463958099</v>
+        <v>0.5034177273377561</v>
       </c>
       <c r="Q3">
-        <v>59.78908569056512</v>
+        <v>886.7614126270277</v>
       </c>
       <c r="R3">
-        <v>538.101771215086</v>
+        <v>7980.852713643249</v>
       </c>
       <c r="S3">
-        <v>0.007324926286625588</v>
+        <v>0.08063278517444976</v>
       </c>
       <c r="T3">
-        <v>0.007324926286625588</v>
+        <v>0.08063278517444976</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>51.24664566666667</v>
+        <v>48.68074166666667</v>
       </c>
       <c r="H4">
-        <v>153.739937</v>
+        <v>146.042225</v>
       </c>
       <c r="I4">
-        <v>0.1518741212000517</v>
+        <v>0.1601707305796784</v>
       </c>
       <c r="J4">
-        <v>0.1518741212000517</v>
+        <v>0.1601707305796784</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>12.123225</v>
+        <v>0.223242</v>
       </c>
       <c r="N4">
-        <v>36.369675</v>
+        <v>0.669726</v>
       </c>
       <c r="O4">
-        <v>0.5011655130501455</v>
+        <v>0.006169568763240637</v>
       </c>
       <c r="P4">
-        <v>0.5011655130501455</v>
+        <v>0.006169568763240637</v>
       </c>
       <c r="Q4">
-        <v>621.274615912275</v>
+        <v>10.86758613115</v>
       </c>
       <c r="R4">
-        <v>5591.471543210475</v>
+        <v>97.80827518035001</v>
       </c>
       <c r="S4">
-        <v>0.07611407187026387</v>
+        <v>0.000988184336169816</v>
       </c>
       <c r="T4">
-        <v>0.07611407187026387</v>
+        <v>0.000988184336169816</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,51 +726,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>51.24664566666667</v>
+        <v>48.68074166666667</v>
       </c>
       <c r="H5">
-        <v>153.739937</v>
+        <v>146.042225</v>
       </c>
       <c r="I5">
-        <v>0.1518741212000517</v>
+        <v>0.1601707305796784</v>
       </c>
       <c r="J5">
-        <v>0.1518741212000517</v>
+        <v>0.1601707305796784</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.04273033333333334</v>
+        <v>16.57858533333333</v>
       </c>
       <c r="N5">
-        <v>0.128191</v>
+        <v>49.735756</v>
       </c>
       <c r="O5">
-        <v>0.001766441638079285</v>
+        <v>0.4581697091553233</v>
       </c>
       <c r="P5">
-        <v>0.001766441638079284</v>
+        <v>0.4581697091553233</v>
       </c>
       <c r="Q5">
-        <v>2.189786251551889</v>
+        <v>807.0578298107889</v>
       </c>
       <c r="R5">
-        <v>19.708076263967</v>
+        <v>7263.520468297101</v>
       </c>
       <c r="S5">
-        <v>0.0002682767714344711</v>
+        <v>0.07338537704488692</v>
       </c>
       <c r="T5">
-        <v>0.0002682767714344711</v>
+        <v>0.07338537704488692</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>51.24664566666667</v>
+        <v>135.746788</v>
       </c>
       <c r="H6">
-        <v>153.739937</v>
+        <v>407.240364</v>
       </c>
       <c r="I6">
-        <v>0.1518741212000517</v>
+        <v>0.4466378584920503</v>
       </c>
       <c r="J6">
-        <v>0.1518741212000517</v>
+        <v>0.4466378584920503</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.84520966666667</v>
+        <v>1.166692666666667</v>
       </c>
       <c r="N6">
-        <v>32.535629</v>
+        <v>3.500078</v>
       </c>
       <c r="O6">
-        <v>0.4483332666622452</v>
+        <v>0.0322429947436799</v>
       </c>
       <c r="P6">
-        <v>0.4483332666622452</v>
+        <v>0.03224299474367989</v>
       </c>
       <c r="Q6">
-        <v>555.7806169683748</v>
+        <v>158.3747820831547</v>
       </c>
       <c r="R6">
-        <v>5002.025552715373</v>
+        <v>1425.373038748392</v>
       </c>
       <c r="S6">
-        <v>0.06809022087907692</v>
+        <v>0.01440094212368763</v>
       </c>
       <c r="T6">
-        <v>0.0680902208790769</v>
+        <v>0.01440094212368762</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,40 +856,40 @@
         <v>407.240364</v>
       </c>
       <c r="I7">
-        <v>0.4022980209734909</v>
+        <v>0.4466378584920503</v>
       </c>
       <c r="J7">
-        <v>0.4022980209734908</v>
+        <v>0.4466378584920503</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.01220466666666667</v>
+        <v>18.21585666666666</v>
       </c>
       <c r="N7">
-        <v>0.036614</v>
+        <v>54.64756999999999</v>
       </c>
       <c r="O7">
-        <v>0.0005045322537201124</v>
+        <v>0.5034177273377561</v>
       </c>
       <c r="P7">
-        <v>0.0005045322537201123</v>
+        <v>0.5034177273377561</v>
       </c>
       <c r="Q7">
-        <v>1.656744298610667</v>
+        <v>2472.744033168387</v>
       </c>
       <c r="R7">
-        <v>14.910698687496</v>
+        <v>22254.69629851548</v>
       </c>
       <c r="S7">
-        <v>0.0002029723271888964</v>
+        <v>0.2248454156650703</v>
       </c>
       <c r="T7">
-        <v>0.0002029723271888963</v>
+        <v>0.2248454156650703</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +918,40 @@
         <v>407.240364</v>
       </c>
       <c r="I8">
-        <v>0.4022980209734909</v>
+        <v>0.4466378584920503</v>
       </c>
       <c r="J8">
-        <v>0.4022980209734908</v>
+        <v>0.4466378584920503</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>1.166692666666667</v>
+        <v>0.223242</v>
       </c>
       <c r="N8">
-        <v>3.500078</v>
+        <v>0.669726</v>
       </c>
       <c r="O8">
-        <v>0.0482302463958099</v>
+        <v>0.006169568763240637</v>
       </c>
       <c r="P8">
-        <v>0.0482302463958099</v>
+        <v>0.006169568763240637</v>
       </c>
       <c r="Q8">
-        <v>158.3747820831547</v>
+        <v>30.30438444669601</v>
       </c>
       <c r="R8">
-        <v>1425.373038748392</v>
+        <v>272.739460020264</v>
       </c>
       <c r="S8">
-        <v>0.01940293267609816</v>
+        <v>0.002755562980233246</v>
       </c>
       <c r="T8">
-        <v>0.01940293267609816</v>
+        <v>0.002755562980233245</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>407.240364</v>
       </c>
       <c r="I9">
-        <v>0.4022980209734909</v>
+        <v>0.4466378584920503</v>
       </c>
       <c r="J9">
-        <v>0.4022980209734908</v>
+        <v>0.4466378584920503</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,43 +992,43 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.123225</v>
+        <v>16.57858533333333</v>
       </c>
       <c r="N9">
-        <v>36.369675</v>
+        <v>49.735756</v>
       </c>
       <c r="O9">
-        <v>0.5011655130501455</v>
+        <v>0.4581697091553233</v>
       </c>
       <c r="P9">
-        <v>0.5011655130501455</v>
+        <v>0.4581697091553233</v>
       </c>
       <c r="Q9">
-        <v>1645.6888539513</v>
+        <v>2250.489708583909</v>
       </c>
       <c r="R9">
-        <v>14811.1996855617</v>
+        <v>20254.40737725519</v>
       </c>
       <c r="S9">
-        <v>0.2016178940802377</v>
+        <v>0.2046359377230592</v>
       </c>
       <c r="T9">
-        <v>0.2016178940802377</v>
+        <v>0.2046359377230592</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
       <c r="E10">
         <v>3</v>
       </c>
@@ -1036,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>135.746788</v>
+        <v>44.00775933333333</v>
       </c>
       <c r="H10">
-        <v>407.240364</v>
+        <v>132.023278</v>
       </c>
       <c r="I10">
-        <v>0.4022980209734909</v>
+        <v>0.1447955540993982</v>
       </c>
       <c r="J10">
-        <v>0.4022980209734908</v>
+        <v>0.1447955540993982</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.04273033333333334</v>
+        <v>1.166692666666667</v>
       </c>
       <c r="N10">
-        <v>0.128191</v>
+        <v>3.500078</v>
       </c>
       <c r="O10">
-        <v>0.001766441638079285</v>
+        <v>0.0322429947436799</v>
       </c>
       <c r="P10">
-        <v>0.001766441638079284</v>
+        <v>0.03224299474367989</v>
       </c>
       <c r="Q10">
-        <v>5.800505500169334</v>
+        <v>51.34353009063156</v>
       </c>
       <c r="R10">
-        <v>52.204549501524</v>
+        <v>462.0917708156841</v>
       </c>
       <c r="S10">
-        <v>0.0007106359751644677</v>
+        <v>0.004668642289735115</v>
       </c>
       <c r="T10">
-        <v>0.0007106359751644674</v>
+        <v>0.004668642289735114</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>135.746788</v>
+        <v>44.00775933333333</v>
       </c>
       <c r="H11">
-        <v>407.240364</v>
+        <v>132.023278</v>
       </c>
       <c r="I11">
-        <v>0.4022980209734909</v>
+        <v>0.1447955540993982</v>
       </c>
       <c r="J11">
-        <v>0.4022980209734908</v>
+        <v>0.1447955540993982</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.84520966666667</v>
+        <v>18.21585666666666</v>
       </c>
       <c r="N11">
-        <v>32.535629</v>
+        <v>54.64756999999999</v>
       </c>
       <c r="O11">
-        <v>0.4483332666622452</v>
+        <v>0.5034177273377561</v>
       </c>
       <c r="P11">
-        <v>0.4483332666622452</v>
+        <v>0.5034177273377561</v>
       </c>
       <c r="Q11">
-        <v>1472.202377436551</v>
+        <v>801.639036237162</v>
       </c>
       <c r="R11">
-        <v>13249.82139692896</v>
+        <v>7214.751326134459</v>
       </c>
       <c r="S11">
-        <v>0.1803635859148016</v>
+        <v>0.07289264877333017</v>
       </c>
       <c r="T11">
-        <v>0.1803635859148016</v>
+        <v>0.07289264877333017</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>67.72999566666668</v>
+        <v>44.00775933333333</v>
       </c>
       <c r="H12">
-        <v>203.189987</v>
+        <v>132.023278</v>
       </c>
       <c r="I12">
-        <v>0.2007240364114038</v>
+        <v>0.1447955540993982</v>
       </c>
       <c r="J12">
-        <v>0.2007240364114038</v>
+        <v>0.1447955540993982</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.01220466666666667</v>
+        <v>0.223242</v>
       </c>
       <c r="N12">
-        <v>0.036614</v>
+        <v>0.669726</v>
       </c>
       <c r="O12">
-        <v>0.0005045322537201124</v>
+        <v>0.006169568763240637</v>
       </c>
       <c r="P12">
-        <v>0.0005045322537201123</v>
+        <v>0.006169568763240637</v>
       </c>
       <c r="Q12">
-        <v>0.8266220204464447</v>
+        <v>9.824380209092</v>
       </c>
       <c r="R12">
-        <v>7.439598184018001</v>
+        <v>88.41942188182801</v>
       </c>
       <c r="S12">
-        <v>0.0001012717504664435</v>
+        <v>0.0008933261276277669</v>
       </c>
       <c r="T12">
-        <v>0.0001012717504664435</v>
+        <v>0.0008933261276277669</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>67.72999566666668</v>
+        <v>44.00775933333333</v>
       </c>
       <c r="H13">
-        <v>203.189987</v>
+        <v>132.023278</v>
       </c>
       <c r="I13">
-        <v>0.2007240364114038</v>
+        <v>0.1447955540993982</v>
       </c>
       <c r="J13">
-        <v>0.2007240364114038</v>
+        <v>0.1447955540993982</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,33 +1240,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.166692666666667</v>
+        <v>16.57858533333333</v>
       </c>
       <c r="N13">
-        <v>3.500078</v>
+        <v>49.735756</v>
       </c>
       <c r="O13">
-        <v>0.0482302463958099</v>
+        <v>0.4581697091553233</v>
       </c>
       <c r="P13">
-        <v>0.0482302463958099</v>
+        <v>0.4581697091553233</v>
       </c>
       <c r="Q13">
-        <v>79.02008925766513</v>
+        <v>729.586393436463</v>
       </c>
       <c r="R13">
-        <v>711.1808033189861</v>
+        <v>6566.277540928168</v>
       </c>
       <c r="S13">
-        <v>0.009680969733683523</v>
+        <v>0.06634093690870516</v>
       </c>
       <c r="T13">
-        <v>0.009680969733683523</v>
+        <v>0.06634093690870516</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,7 +1275,7 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>67.72999566666668</v>
+        <v>27.64718166666666</v>
       </c>
       <c r="H14">
-        <v>203.189987</v>
+        <v>82.94154499999999</v>
       </c>
       <c r="I14">
-        <v>0.2007240364114038</v>
+        <v>0.09096552629253131</v>
       </c>
       <c r="J14">
-        <v>0.2007240364114038</v>
+        <v>0.0909655262925313</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,43 +1302,43 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>12.123225</v>
+        <v>1.166692666666667</v>
       </c>
       <c r="N14">
-        <v>36.369675</v>
+        <v>3.500078</v>
       </c>
       <c r="O14">
-        <v>0.5011655130501455</v>
+        <v>0.0322429947436799</v>
       </c>
       <c r="P14">
-        <v>0.5011655130501455</v>
+        <v>0.03224299474367989</v>
       </c>
       <c r="Q14">
-        <v>821.1059767160251</v>
+        <v>32.25576410450111</v>
       </c>
       <c r="R14">
-        <v>7389.953790444226</v>
+        <v>290.30187694051</v>
       </c>
       <c r="S14">
-        <v>0.1005959646896173</v>
+        <v>0.002933000986106163</v>
       </c>
       <c r="T14">
-        <v>0.1005959646896173</v>
+        <v>0.002933000986106161</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>22</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>23</v>
-      </c>
       <c r="E15">
         <v>3</v>
       </c>
@@ -1346,51 +1346,51 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>67.72999566666668</v>
+        <v>27.64718166666666</v>
       </c>
       <c r="H15">
-        <v>203.189987</v>
+        <v>82.94154499999999</v>
       </c>
       <c r="I15">
-        <v>0.2007240364114038</v>
+        <v>0.09096552629253131</v>
       </c>
       <c r="J15">
-        <v>0.2007240364114038</v>
+        <v>0.0909655262925313</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.04273033333333334</v>
+        <v>18.21585666666666</v>
       </c>
       <c r="N15">
-        <v>0.128191</v>
+        <v>54.64756999999999</v>
       </c>
       <c r="O15">
-        <v>0.001766441638079285</v>
+        <v>0.5034177273377561</v>
       </c>
       <c r="P15">
-        <v>0.001766441638079284</v>
+        <v>0.5034177273377561</v>
       </c>
       <c r="Q15">
-        <v>2.89412529150189</v>
+        <v>503.6170984772943</v>
       </c>
       <c r="R15">
-        <v>26.047127623517</v>
+        <v>4532.553886295649</v>
       </c>
       <c r="S15">
-        <v>0.0003545672956804461</v>
+        <v>0.04579365851226901</v>
       </c>
       <c r="T15">
-        <v>0.000354567295680446</v>
+        <v>0.04579365851226901</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,7 +1399,7 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>67.72999566666668</v>
+        <v>27.64718166666666</v>
       </c>
       <c r="H16">
-        <v>203.189987</v>
+        <v>82.94154499999999</v>
       </c>
       <c r="I16">
-        <v>0.2007240364114038</v>
+        <v>0.09096552629253131</v>
       </c>
       <c r="J16">
-        <v>0.2007240364114038</v>
+        <v>0.0909655262925313</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>10.84520966666667</v>
+        <v>0.223242</v>
       </c>
       <c r="N16">
-        <v>32.535629</v>
+        <v>0.669726</v>
       </c>
       <c r="O16">
-        <v>0.4483332666622452</v>
+        <v>0.006169568763240637</v>
       </c>
       <c r="P16">
-        <v>0.4483332666622452</v>
+        <v>0.006169568763240637</v>
       </c>
       <c r="Q16">
-        <v>734.5460037274249</v>
+        <v>6.172012129630001</v>
       </c>
       <c r="R16">
-        <v>6610.914033546824</v>
+        <v>55.54810916667</v>
       </c>
       <c r="S16">
-        <v>0.08999126294195613</v>
+        <v>0.000561218069546146</v>
       </c>
       <c r="T16">
-        <v>0.0899912629419561</v>
+        <v>0.0005612180695461459</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1470,51 +1470,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>29.08290733333334</v>
+        <v>27.64718166666666</v>
       </c>
       <c r="H17">
-        <v>87.24872200000001</v>
+        <v>82.94154499999999</v>
       </c>
       <c r="I17">
-        <v>0.08618985566240746</v>
+        <v>0.09096552629253131</v>
       </c>
       <c r="J17">
-        <v>0.08618985566240746</v>
+        <v>0.0909655262925313</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.01220466666666667</v>
+        <v>16.57858533333333</v>
       </c>
       <c r="N17">
-        <v>0.036614</v>
+        <v>49.735756</v>
       </c>
       <c r="O17">
-        <v>0.0005045322537201124</v>
+        <v>0.4581697091553233</v>
       </c>
       <c r="P17">
-        <v>0.0005045322537201123</v>
+        <v>0.4581697091553233</v>
       </c>
       <c r="Q17">
-        <v>0.354947189700889</v>
+        <v>458.3511604870022</v>
       </c>
       <c r="R17">
-        <v>3.194524707308001</v>
+        <v>4125.16044438302</v>
       </c>
       <c r="S17">
-        <v>4.348556212516563E-05</v>
+        <v>0.04167764872460998</v>
       </c>
       <c r="T17">
-        <v>4.348556212516562E-05</v>
+        <v>0.04167764872460998</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>29.08290733333334</v>
+        <v>47.847851</v>
       </c>
       <c r="H18">
-        <v>87.24872200000001</v>
+        <v>143.543553</v>
       </c>
       <c r="I18">
-        <v>0.08618985566240746</v>
+        <v>0.1574303305363417</v>
       </c>
       <c r="J18">
-        <v>0.08618985566240746</v>
+        <v>0.1574303305363417</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,27 +1556,27 @@
         <v>3.500078</v>
       </c>
       <c r="O18">
-        <v>0.0482302463958099</v>
+        <v>0.0322429947436799</v>
       </c>
       <c r="P18">
-        <v>0.0482302463958099</v>
+        <v>0.03224299474367989</v>
       </c>
       <c r="Q18">
-        <v>33.93081471114623</v>
+        <v>55.82373687745934</v>
       </c>
       <c r="R18">
-        <v>305.377332400316</v>
+        <v>502.4136318971341</v>
       </c>
       <c r="S18">
-        <v>0.004156957975417202</v>
+        <v>0.005076025319979056</v>
       </c>
       <c r="T18">
-        <v>0.004156957975417202</v>
+        <v>0.005076025319979054</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>29.08290733333334</v>
+        <v>47.847851</v>
       </c>
       <c r="H19">
-        <v>87.24872200000001</v>
+        <v>143.543553</v>
       </c>
       <c r="I19">
-        <v>0.08618985566240746</v>
+        <v>0.1574303305363417</v>
       </c>
       <c r="J19">
-        <v>0.08618985566240746</v>
+        <v>0.1574303305363417</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,33 +1612,33 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>12.123225</v>
+        <v>18.21585666666666</v>
       </c>
       <c r="N19">
-        <v>36.369675</v>
+        <v>54.64756999999999</v>
       </c>
       <c r="O19">
-        <v>0.5011655130501455</v>
+        <v>0.5034177273377561</v>
       </c>
       <c r="P19">
-        <v>0.5011655130501455</v>
+        <v>0.5034177273377561</v>
       </c>
       <c r="Q19">
-        <v>352.5786292561501</v>
+        <v>871.5895956240232</v>
       </c>
       <c r="R19">
-        <v>3173.207663305351</v>
+        <v>7844.30636061621</v>
       </c>
       <c r="S19">
-        <v>0.04319538323276842</v>
+        <v>0.07925321921263691</v>
       </c>
       <c r="T19">
-        <v>0.04319538323276842</v>
+        <v>0.07925321921263691</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1656,51 +1656,51 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>29.08290733333334</v>
+        <v>47.847851</v>
       </c>
       <c r="H20">
-        <v>87.24872200000001</v>
+        <v>143.543553</v>
       </c>
       <c r="I20">
-        <v>0.08618985566240746</v>
+        <v>0.1574303305363417</v>
       </c>
       <c r="J20">
-        <v>0.08618985566240746</v>
+        <v>0.1574303305363417</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>0.04273033333333334</v>
+        <v>0.223242</v>
       </c>
       <c r="N20">
-        <v>0.128191</v>
+        <v>0.669726</v>
       </c>
       <c r="O20">
-        <v>0.001766441638079285</v>
+        <v>0.006169568763240637</v>
       </c>
       <c r="P20">
-        <v>0.001766441638079284</v>
+        <v>0.006169568763240637</v>
       </c>
       <c r="Q20">
-        <v>1.242722324655778</v>
+        <v>10.681649952942</v>
       </c>
       <c r="R20">
-        <v>11.184500921902</v>
+        <v>96.134849576478</v>
       </c>
       <c r="S20">
-        <v>0.0001522493498221201</v>
+        <v>0.0009712772496636625</v>
       </c>
       <c r="T20">
-        <v>0.0001522493498221201</v>
+        <v>0.0009712772496636625</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>29.08290733333334</v>
+        <v>47.847851</v>
       </c>
       <c r="H21">
-        <v>87.24872200000001</v>
+        <v>143.543553</v>
       </c>
       <c r="I21">
-        <v>0.08618985566240746</v>
+        <v>0.1574303305363417</v>
       </c>
       <c r="J21">
-        <v>0.08618985566240746</v>
+        <v>0.1574303305363417</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,338 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>10.84520966666667</v>
+        <v>16.57858533333333</v>
       </c>
       <c r="N21">
-        <v>32.535629</v>
+        <v>49.735756</v>
       </c>
       <c r="O21">
-        <v>0.4483332666622452</v>
+        <v>0.4581697091553233</v>
       </c>
       <c r="P21">
-        <v>0.4483332666622452</v>
+        <v>0.4581697091553233</v>
       </c>
       <c r="Q21">
-        <v>315.4102277462376</v>
+        <v>793.2496808201187</v>
       </c>
       <c r="R21">
-        <v>2838.692049716139</v>
+        <v>7139.247127381069</v>
       </c>
       <c r="S21">
-        <v>0.03864177954227455</v>
+        <v>0.07212980875406209</v>
       </c>
       <c r="T21">
-        <v>0.03864177954227455</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>53.62208933333334</v>
-      </c>
-      <c r="H22">
-        <v>160.866268</v>
-      </c>
-      <c r="I22">
-        <v>0.1589139657526463</v>
-      </c>
-      <c r="J22">
-        <v>0.1589139657526463</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M22">
-        <v>0.01220466666666667</v>
-      </c>
-      <c r="N22">
-        <v>0.036614</v>
-      </c>
-      <c r="O22">
-        <v>0.0005045322537201124</v>
-      </c>
-      <c r="P22">
-        <v>0.0005045322537201123</v>
-      </c>
-      <c r="Q22">
-        <v>0.6544397262835557</v>
-      </c>
-      <c r="R22">
-        <v>5.889957536552001</v>
-      </c>
-      <c r="S22">
-        <v>8.01772212887834E-05</v>
-      </c>
-      <c r="T22">
-        <v>8.017722128878337E-05</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>53.62208933333334</v>
-      </c>
-      <c r="H23">
-        <v>160.866268</v>
-      </c>
-      <c r="I23">
-        <v>0.1589139657526463</v>
-      </c>
-      <c r="J23">
-        <v>0.1589139657526463</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>1.166692666666667</v>
-      </c>
-      <c r="N23">
-        <v>3.500078</v>
-      </c>
-      <c r="O23">
-        <v>0.0482302463958099</v>
-      </c>
-      <c r="P23">
-        <v>0.0482302463958099</v>
-      </c>
-      <c r="Q23">
-        <v>62.56049839654491</v>
-      </c>
-      <c r="R23">
-        <v>563.0444855689041</v>
-      </c>
-      <c r="S23">
-        <v>0.007664459723985426</v>
-      </c>
-      <c r="T23">
-        <v>0.007664459723985425</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>53.62208933333334</v>
-      </c>
-      <c r="H24">
-        <v>160.866268</v>
-      </c>
-      <c r="I24">
-        <v>0.1589139657526463</v>
-      </c>
-      <c r="J24">
-        <v>0.1589139657526463</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>12.123225</v>
-      </c>
-      <c r="N24">
-        <v>36.369675</v>
-      </c>
-      <c r="O24">
-        <v>0.5011655130501455</v>
-      </c>
-      <c r="P24">
-        <v>0.5011655130501455</v>
-      </c>
-      <c r="Q24">
-        <v>650.0726539581001</v>
-      </c>
-      <c r="R24">
-        <v>5850.653885622901</v>
-      </c>
-      <c r="S24">
-        <v>0.07964219917725822</v>
-      </c>
-      <c r="T24">
-        <v>0.0796421991772582</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>53.62208933333334</v>
-      </c>
-      <c r="H25">
-        <v>160.866268</v>
-      </c>
-      <c r="I25">
-        <v>0.1589139657526463</v>
-      </c>
-      <c r="J25">
-        <v>0.1589139657526463</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M25">
-        <v>0.04273033333333334</v>
-      </c>
-      <c r="N25">
-        <v>0.128191</v>
-      </c>
-      <c r="O25">
-        <v>0.001766441638079285</v>
-      </c>
-      <c r="P25">
-        <v>0.001766441638079284</v>
-      </c>
-      <c r="Q25">
-        <v>2.291289751243112</v>
-      </c>
-      <c r="R25">
-        <v>20.621607761188</v>
-      </c>
-      <c r="S25">
-        <v>0.0002807122459777799</v>
-      </c>
-      <c r="T25">
-        <v>0.0002807122459777798</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>53.62208933333334</v>
-      </c>
-      <c r="H26">
-        <v>160.866268</v>
-      </c>
-      <c r="I26">
-        <v>0.1589139657526463</v>
-      </c>
-      <c r="J26">
-        <v>0.1589139657526463</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>10.84520966666667</v>
-      </c>
-      <c r="N26">
-        <v>32.535629</v>
-      </c>
-      <c r="O26">
-        <v>0.4483332666622452</v>
-      </c>
-      <c r="P26">
-        <v>0.4483332666622452</v>
-      </c>
-      <c r="Q26">
-        <v>581.5428015847303</v>
-      </c>
-      <c r="R26">
-        <v>5233.885214262573</v>
-      </c>
-      <c r="S26">
-        <v>0.07124641738413608</v>
-      </c>
-      <c r="T26">
-        <v>0.07124641738413605</v>
+        <v>0.07212980875406211</v>
       </c>
     </row>
   </sheetData>
